--- a/default-files/Example_ExcelReference/excel/沙盒/Localization/english/D地图列表_Maps_hotfix.xlsx
+++ b/default-files/Example_ExcelReference/excel/沙盒/Localization/english/D地图列表_Maps_hotfix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE08533-07AF-4FD9-BC75-056666AF4982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7CF010-B5DC-4E47-AFA4-B3CF44CFF45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="250">
   <si>
     <t>地图ID_MapID</t>
   </si>
@@ -37,9 +37,6 @@
     <t>黑崖</t>
   </si>
   <si>
-    <t>Umbra Cliffs</t>
-  </si>
-  <si>
     <t>新黑崖无名营地</t>
   </si>
   <si>
@@ -559,46 +556,49 @@
     <t>Vale da Pedra Vermelha</t>
   </si>
   <si>
+    <t>Vale Gêmeo da Lua</t>
+  </si>
+  <si>
+    <t>Montanhas Zagros</t>
+  </si>
+  <si>
+    <t>Deserto de Docana Oeste</t>
+  </si>
+  <si>
+    <t>Cavernas</t>
+  </si>
+  <si>
+    <t>Livro da Ilusão de Fogo</t>
+  </si>
+  <si>
+    <t>Memórias do Guerreiro</t>
+  </si>
+  <si>
+    <t>Minas Ember</t>
+  </si>
+  <si>
+    <t>Fortaleza de Rabia</t>
+  </si>
+  <si>
+    <t>Catacumba do Velho Rei</t>
+  </si>
+  <si>
+    <t>Floresta Canis</t>
+  </si>
+  <si>
+    <t>Oásis Misterioso</t>
+  </si>
+  <si>
     <t>Rocha Chorosa</t>
   </si>
   <si>
-    <t>Vale Gêmeo da Lua</t>
-  </si>
-  <si>
-    <t>Montanhas Zagros</t>
-  </si>
-  <si>
-    <t>Deserto Docana Ocidental</t>
-  </si>
-  <si>
-    <t>Cavernas</t>
-  </si>
-  <si>
-    <t>Miragem do Livro do Fogo</t>
-  </si>
-  <si>
-    <t>Memórias do Guerreiro</t>
-  </si>
-  <si>
-    <t>Minas das Brasas</t>
-  </si>
-  <si>
-    <t>Fortaleza de Rabia</t>
-  </si>
-  <si>
-    <t>Catacumba do Velho Rei</t>
-  </si>
-  <si>
-    <t>Floresta de Canis</t>
-  </si>
-  <si>
-    <t>Oásis Misterioso</t>
-  </si>
-  <si>
     <t>Caverna do Pináculo da Espada</t>
   </si>
   <si>
-    <t>Cidade Infinita</t>
+    <t>Cidade Sem Fim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cidade Sem Fim </t>
   </si>
   <si>
     <t>Primeiro Teste</t>
@@ -613,37 +613,37 @@
     <t>Cavernas Zagros</t>
   </si>
   <si>
-    <t>Caverna dos Bandidos de Rocha Chorosa</t>
+    <t>Caverna dos Bandidos em Rocha Chorosa</t>
   </si>
   <si>
     <t>Interior da Caverna do Vale do Gelo</t>
   </si>
   <si>
-    <t>Caverna dos Ifrits</t>
-  </si>
-  <si>
-    <t>Mina Abandonada de Rocha Chorosa</t>
+    <t>Caverna do Ifrit</t>
+  </si>
+  <si>
+    <t>Mina Abandonada em Rocha Chorosa</t>
   </si>
   <si>
     <t>Memórias</t>
   </si>
   <si>
-    <t>Cavernas Sinistras</t>
+    <t>Cavernas Sombrias</t>
   </si>
   <si>
     <t>Vale do Caçador</t>
   </si>
   <si>
-    <t>Masmorra de Shujae</t>
+    <t>Masmorra Shujae</t>
   </si>
   <si>
     <t>Arredores do Vale da Pedra Vermelha</t>
   </si>
   <si>
-    <t>Covil dos Ifrits</t>
-  </si>
-  <si>
-    <t>Miragem</t>
+    <t>Covil dos Ifrit</t>
+  </si>
+  <si>
+    <t>Ilusão</t>
   </si>
   <si>
     <t>Túnel Subterrâneo</t>
@@ -661,7 +661,7 @@
     <t>Caverna das Maldições</t>
   </si>
   <si>
-    <t>Vale de Sirocco</t>
+    <t>Vale Sirocco</t>
   </si>
   <si>
     <t>Palácio Arbor</t>
@@ -670,13 +670,13 @@
     <t>Vale Verdejante</t>
   </si>
   <si>
-    <t>Cavernas dos Ossos de Leviatã</t>
+    <t>Cavernas de Ossos do Leviatã</t>
   </si>
   <si>
     <t>Mina Abandonada da Pedra Vermelha</t>
   </si>
   <si>
-    <t>Formação Gigante Zagros</t>
+    <t>Formação do Gigante Zagros</t>
   </si>
   <si>
     <t>Vazio de Lava Pāhoehoe</t>
@@ -685,49 +685,52 @@
     <t>Esconderijo Secreto</t>
   </si>
   <si>
-    <t>Cavernas de Agadir</t>
+    <t>Cavernas Agadir</t>
   </si>
   <si>
     <t>Cavernas de Neve</t>
   </si>
   <si>
-    <t>Miragem da Floresta</t>
+    <t>Floresta da Ilusão</t>
   </si>
   <si>
     <t>Vale Sem Nome</t>
   </si>
   <si>
+    <t>Covil do Ifrit</t>
+  </si>
+  <si>
+    <t>Covil do Ifrit da Pedra Vermelha</t>
+  </si>
+  <si>
     <t>Visão da Deusa</t>
   </si>
   <si>
-    <t>Covil Ifrit do Vale da Pedra Vermelha</t>
-  </si>
-  <si>
-    <t>Memórias de Jahim</t>
-  </si>
-  <si>
-    <t>Memórias de Yaya</t>
-  </si>
-  <si>
-    <t>Entrada do Vale Verdejante de Rocha Chorosa</t>
-  </si>
-  <si>
-    <t>Entrada do Vale Verdejante Zagros</t>
-  </si>
-  <si>
-    <t>Entrada do Vale Verdejante do Pântano</t>
-  </si>
-  <si>
-    <t>Rota de Comércio no Deserto</t>
-  </si>
-  <si>
-    <t>Cavernas da Época</t>
+    <t xml:space="preserve">Memórias de Jahim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memórias de Yaya </t>
+  </si>
+  <si>
+    <t>Entrada do Vale Verdejante em Rocha Chorosa</t>
+  </si>
+  <si>
+    <t>Entrada do Vale Verdejante em Zagros</t>
+  </si>
+  <si>
+    <t>Entrada do Vale Verdejante no Pântano</t>
+  </si>
+  <si>
+    <t>Rota Comercial do Deserto</t>
+  </si>
+  <si>
+    <t>Cavernas Epoch</t>
   </si>
   <si>
     <t>Passagem</t>
   </si>
   <si>
-    <t>Acampamento dos Ifrits</t>
+    <t>Acampamento dos Ifrit</t>
   </si>
   <si>
     <t>Ruínas Desconhecidas</t>
@@ -736,7 +739,16 @@
     <t>Acampamento de Fogo</t>
   </si>
   <si>
-    <t>Jardim das Rosas Brancas</t>
+    <t>Montanhas Ilyas</t>
+  </si>
+  <si>
+    <t>No Caminho</t>
+  </si>
+  <si>
+    <t>Domínio do Ifrit</t>
+  </si>
+  <si>
+    <t>Jardim da Rosa Branca</t>
   </si>
   <si>
     <t>Memórias de Riq</t>
@@ -751,22 +763,13 @@
     <t>Livro do Fogo</t>
   </si>
   <si>
-    <t>Demônio Interior</t>
+    <t>Demônio Interno</t>
   </si>
   <si>
     <t>Memórias de Mathali</t>
   </si>
   <si>
     <t>Interior da Taverna</t>
-  </si>
-  <si>
-    <t>Montanhas Ilyas</t>
-  </si>
-  <si>
-    <t>A Caminho</t>
-  </si>
-  <si>
-    <t>Domínio Ifrit</t>
   </si>
 </sst>
 </file>
@@ -894,7 +897,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -924,6 +927,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1278,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1306,246 +1312,246 @@
         <v>4</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="22.5">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="22.5">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>5</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="C6" s="9" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="22.5">
       <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C7" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="22.5">
       <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C9" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="22.5">
       <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C10" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="22.5">
       <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C12" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="22.5">
       <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C13" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="33.75">
       <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="22.5">
       <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C15" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="22.5">
       <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C16" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="22.5">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="22.5">
       <c r="A18" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="22.5">
       <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C19" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="22.5">
       <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C20" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="22.5">
       <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C21" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="22.5">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C23" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>192</v>
@@ -1553,10 +1559,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>192</v>
@@ -1564,10 +1570,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>192</v>
@@ -1575,10 +1581,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>193</v>
@@ -1586,21 +1592,21 @@
     </row>
     <row r="28" spans="1:3" ht="22.5">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="22.5">
       <c r="A29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>194</v>
@@ -1608,10 +1614,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>195</v>
@@ -1619,10 +1625,10 @@
     </row>
     <row r="31" spans="1:3" ht="22.5">
       <c r="A31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>196</v>
@@ -1630,10 +1636,10 @@
     </row>
     <row r="32" spans="1:3" ht="22.5">
       <c r="A32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>197</v>
@@ -1641,10 +1647,10 @@
     </row>
     <row r="33" spans="1:3" ht="22.5">
       <c r="A33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>198</v>
@@ -1652,10 +1658,10 @@
     </row>
     <row r="34" spans="1:3" ht="22.5">
       <c r="A34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>199</v>
@@ -1663,10 +1669,10 @@
     </row>
     <row r="35" spans="1:3" ht="22.5">
       <c r="A35" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>200</v>
@@ -1674,10 +1680,10 @@
     </row>
     <row r="36" spans="1:3" ht="22.5">
       <c r="A36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>201</v>
@@ -1685,10 +1691,10 @@
     </row>
     <row r="37" spans="1:3" ht="22.5">
       <c r="A37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>202</v>
@@ -1696,10 +1702,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>203</v>
@@ -1707,10 +1713,10 @@
     </row>
     <row r="39" spans="1:3" ht="22.5">
       <c r="A39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>204</v>
@@ -1718,10 +1724,10 @@
     </row>
     <row r="40" spans="1:3" ht="22.5">
       <c r="A40" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>205</v>
@@ -1729,10 +1735,10 @@
     </row>
     <row r="41" spans="1:3" ht="22.5">
       <c r="A41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>206</v>
@@ -1740,21 +1746,21 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="C42" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="22.5">
       <c r="A43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>207</v>
@@ -1762,10 +1768,10 @@
     </row>
     <row r="44" spans="1:3" ht="22.5">
       <c r="A44" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>208</v>
@@ -1773,10 +1779,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>209</v>
@@ -1784,10 +1790,10 @@
     </row>
     <row r="46" spans="1:3" ht="22.5">
       <c r="A46" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>210</v>
@@ -1795,10 +1801,10 @@
     </row>
     <row r="47" spans="1:3" ht="22.5">
       <c r="A47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>211</v>
@@ -1806,21 +1812,21 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>212</v>
@@ -1828,10 +1834,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>213</v>
@@ -1839,10 +1845,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>214</v>
@@ -1850,10 +1856,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>215</v>
@@ -1861,10 +1867,10 @@
     </row>
     <row r="53" spans="1:3" ht="22.5">
       <c r="A53" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>216</v>
@@ -1872,10 +1878,10 @@
     </row>
     <row r="54" spans="1:3" ht="22.5">
       <c r="A54" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>217</v>
@@ -1883,10 +1889,10 @@
     </row>
     <row r="55" spans="1:3" ht="22.5">
       <c r="A55" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>218</v>
@@ -1894,10 +1900,10 @@
     </row>
     <row r="56" spans="1:3" ht="22.5">
       <c r="A56" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>219</v>
@@ -1905,10 +1911,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>220</v>
@@ -1916,10 +1922,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>221</v>
@@ -1927,10 +1933,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>222</v>
@@ -1938,10 +1944,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>223</v>
@@ -1949,21 +1955,21 @@
     </row>
     <row r="61" spans="1:3" ht="22.5">
       <c r="A61" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="22.5">
       <c r="A62" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>224</v>
@@ -1971,21 +1977,21 @@
     </row>
     <row r="63" spans="1:3" ht="22.5">
       <c r="A63" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="22.5">
       <c r="A64" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>209</v>
@@ -1993,10 +1999,10 @@
     </row>
     <row r="65" spans="1:3" ht="22.5">
       <c r="A65" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>207</v>
@@ -2004,10 +2010,10 @@
     </row>
     <row r="66" spans="1:3" ht="22.5">
       <c r="A66" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>226</v>
@@ -2015,10 +2021,10 @@
     </row>
     <row r="67" spans="1:3" ht="22.5">
       <c r="A67" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>211</v>
@@ -2026,109 +2032,109 @@
     </row>
     <row r="68" spans="1:3" ht="22.5">
       <c r="A68" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="22.5">
       <c r="A69" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="C69" s="9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="22.5">
       <c r="A70" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="C70" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="22.5">
       <c r="A71" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="22.5">
       <c r="A72" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="C72" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="22.5">
       <c r="A73" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="22.5">
       <c r="A74" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="22.5">
       <c r="A75" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="22.5">
       <c r="A76" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="C76" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="22.5">
       <c r="A77" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>215</v>
@@ -2136,65 +2142,65 @@
     </row>
     <row r="78" spans="1:3" ht="22.5">
       <c r="A78" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="C78" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="22.5">
       <c r="A79" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="C79" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="22.5">
       <c r="A80" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="C80" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="22.5">
       <c r="A81" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="C81" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="22.5">
       <c r="A82" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="C82" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="22.5">
       <c r="A83" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>211</v>
@@ -2202,21 +2208,21 @@
     </row>
     <row r="84" spans="1:3" ht="22.5">
       <c r="A84" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="33.75">
       <c r="A85" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>208</v>
@@ -2224,10 +2230,10 @@
     </row>
     <row r="86" spans="1:3" ht="22.5">
       <c r="A86" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>209</v>
@@ -2235,54 +2241,54 @@
     </row>
     <row r="87" spans="1:3" ht="22.5">
       <c r="A87" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="22.5">
       <c r="A88" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="C88" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="22.5">
       <c r="A89" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="C89" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="22.5">
       <c r="A90" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="C90" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="22.5">
       <c r="A91" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C91" s="9" t="s">
         <v>203</v>
@@ -2290,237 +2296,236 @@
     </row>
     <row r="92" spans="1:3" ht="22.5">
       <c r="A92" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="C92" s="9" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="22.5">
       <c r="A93" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="C93" s="9" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="22.5">
       <c r="A94" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="C94" s="9" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="22.5">
       <c r="A95" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="22.5">
       <c r="A96" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="22.5">
       <c r="A97" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="22.5">
       <c r="A98" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="C98" s="9" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="22.5">
       <c r="A99" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="C99" s="9" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="22.5">
       <c r="A100" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="C100" s="9" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="22.5">
       <c r="A101" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="C101" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="22.5">
       <c r="A102" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B102" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C102" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="22.5">
       <c r="A103" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C103" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="22.5">
       <c r="A104" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B104" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C104" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="22.5">
       <c r="A105" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="C106" s="9" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="22.5">
       <c r="A107" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="C107" s="9" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="22.5">
       <c r="A108" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="22.5">
       <c r="A109" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="C109" s="9" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="22.5">
       <c r="A110" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="22.5">
       <c r="A112" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>178</v>
+        <v>8</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>